--- a/src/experiment/results/experiment_results_cleveland.xlsx
+++ b/src/experiment/results/experiment_results_cleveland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,26 @@
           <t>n_features</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Top 10 Correlation Features</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap Count</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap Ratio</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Common Features</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -548,6 +568,22 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>13, 12, 9, 10, 8, 3, 11</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>3, 9, 10, 11, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -592,6 +628,22 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>10, 13, 12, 3, 9, 11, 8</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.5556</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>3, 9, 10, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -636,6 +688,22 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>13, 9, 3, 8, 10, 12, 11</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>3, 9, 10, 11, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -680,6 +748,22 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>10, 13, 12, 3, 9, 11, 8</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>3, 9, 10, 11, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -724,6 +808,22 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>13, 12, 9, 10, 8, 3, 11</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5385</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>3, 8, 9, 10, 11, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -768,6 +868,22 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>10, 13, 12, 3, 9, 11, 8</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.5385</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>3, 8, 9, 10, 11, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -812,6 +928,22 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>13, 9, 3, 8, 10, 12, 11</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.5385</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>3, 8, 9, 10, 11, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -856,6 +988,22 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>10, 13, 12, 3, 9, 11, 8</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.5385</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>3, 8, 9, 10, 11, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -902,6 +1050,22 @@
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>13, 12, 9, 10, 8, 3, 11</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>3, 9, 10, 11, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -948,6 +1112,22 @@
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>10, 13, 12, 3, 9, 11, 8</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>3, 10, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -994,6 +1174,22 @@
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>13, 9, 3, 8, 10, 12, 11</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.7143</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>3, 9, 11, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1040,6 +1236,22 @@
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>10, 13, 12, 3, 9, 11, 8</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>3, 9, 10, 11, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1088,6 +1300,22 @@
         <v>0.5</v>
       </c>
       <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>13, 12, 9, 10, 8, 3, 11</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.7143</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>3, 9, 11, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1136,6 +1364,22 @@
         <v>0.1</v>
       </c>
       <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>10, 13, 12, 3, 9, 11, 8</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>3, 10, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1184,6 +1428,22 @@
         <v>0.1</v>
       </c>
       <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>13, 9, 3, 8, 10, 12, 11</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>3, 9, 11, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1232,6 +1492,22 @@
         <v>0.1</v>
       </c>
       <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>10, 13, 12, 3, 9, 11, 8</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>3, 9, 10, 11, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1278,6 +1554,22 @@
         <v>0.5</v>
       </c>
       <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>13, 12, 9, 10, 8, 3, 11</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.5385</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>3, 8, 9, 10, 11, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1324,6 +1616,22 @@
         <v>0.1</v>
       </c>
       <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>10, 13, 12, 3, 9, 11, 8</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.5385</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>3, 8, 9, 10, 11, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1370,6 +1678,22 @@
         <v>0.1</v>
       </c>
       <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>13, 9, 3, 8, 10, 12, 11</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.5385</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>3, 8, 9, 10, 11, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1416,6 +1740,22 @@
         <v>0.1</v>
       </c>
       <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>10, 13, 12, 3, 9, 11, 8</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.5385</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>3, 8, 9, 10, 11, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1460,6 +1800,22 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>13, 12, 9, 10, 8, 3, 11</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>3, 9, 10, 11, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1504,6 +1860,22 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>10, 13, 12, 3, 9, 11, 8</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>3, 9, 10, 11, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1548,6 +1920,22 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>13, 9, 3, 8, 10, 12, 11</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>3, 9, 10, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1592,6 +1980,22 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>10, 13, 12, 3, 9, 11, 8</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.7143</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>3, 9, 10, 11, 13</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1638,6 +2042,22 @@
       <c r="N26" t="n">
         <v>6</v>
       </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>13, 12, 9, 10, 8, 3, 11</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>3, 9, 11, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1684,6 +2104,22 @@
       <c r="N27" t="n">
         <v>6</v>
       </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>10, 13, 12, 3, 9, 11, 8</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>3, 10, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1730,6 +2166,22 @@
       <c r="N28" t="n">
         <v>6</v>
       </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>13, 9, 3, 8, 10, 12, 11</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>3, 9, 11, 12, 13</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1776,6 +2228,22 @@
       <c r="N29" t="n">
         <v>9</v>
       </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>10, 13, 12, 3, 9, 11, 8</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.5556</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>3, 9, 11, 12, 13</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
